--- a/HERVAL.xlsx
+++ b/HERVAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{735DEA24-D9AA-4C82-8C37-0DF672626471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5493638-A278-4679-A28E-6677B316D07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1013,7 +1000,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1073,36 +1060,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1136,14 +1099,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,7 +1119,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1193,7 +1151,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{DE53DB9C-BBCE-4D61-8C32-1967DCE07592}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{2C6D41AA-818B-46A9-B806-E7B725E688A6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1223,10 +1181,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4181C540-F91E-4667-BA76-33E7E1B4CB94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C1E736-31F6-48BE-9F4C-B19C0B5B90A2}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1222,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3BCE7B-FEB7-432C-89D5-DFE799C4D3A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE22DA37-101A-4F99-950B-17E8EFDF96DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1285,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A906707-079B-45D0-A15B-369209751398}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D07BC2-A562-4D23-A8E4-B5042CC5522A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1304,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DADCF183-B10B-2057-9827-DE5F6C2CE325}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FF8335-999B-64BB-773A-4C821EFCAD64}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1395,7 +1353,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4B8B46-397E-2E50-F019-3E0FD3E0496C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A85F81B-48A5-77BE-EBAD-E678F585F629}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1414,7 +1372,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6800CE-1998-9C41-9038-6C62BCF8846F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43EDAB2B-F46D-D9A2-ACD9-C6EF553A3E47}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1445,7 +1403,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C0A1F3-BAA1-F90A-F52B-E1B029BFEFC7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5311FB-8BE0-8170-C8B6-88C9593ABA14}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1476,7 +1434,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77853BE1-6655-D52A-0694-CC6F9CBB53C5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC3337B-C770-CC7D-3256-D3B585B1D1A8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1519,7 +1477,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EB278D-0B70-4CDE-B4FC-13995F18E9EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B368AAEF-1DC1-4A5A-B4F8-2D9099D5E6C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,7 +1515,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BFF9EB-0905-488D-A990-7B1EEFE50049}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2028F1D9-B054-4CB5-9A11-6078FD3FFF58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1558,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C91CBED-5D18-4901-B42C-7476D8F4EB57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E503232-B113-47F8-BB28-EC412BC3AE2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0A2276-30E8-4FA1-9046-2AE78C610904}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA0E908-097A-4E81-A9A1-CD1AD1D21F7F}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1925,98 +1883,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="2" style="36" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="5" width="12.5703125" style="33"/>
+    <col min="6" max="6" width="2" style="33" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="35"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="35"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="35"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="35"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="35"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="35"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="35"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="35"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="35"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="35"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="35"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="35"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="35"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="35"/>
+      <c r="F14" s="32"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="35"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="35"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="35"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="35"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="35"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="35"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="35"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="35"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="35"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="35"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="35"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="35"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="35"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5163,19 +5121,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>256</v>
       </c>
     </row>
@@ -5198,35 +5156,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5251,101 +5209,102 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="18" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="21">
         <v>45078</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="22">
         <v>604</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="23">
         <v>1702</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="23">
         <v>265</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="25" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5370,31 +5329,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="31">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="28">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="31">
         <v>26</v>
       </c>
-      <c r="F1" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="34">
-        <v>26</v>
-      </c>
-      <c r="C2" s="32">
+      <c r="C2" s="29">
         <v>1.719349292421637E-3</v>
       </c>
     </row>

--- a/HERVAL.xlsx
+++ b/HERVAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5493638-A278-4679-A28E-6677B316D07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E07A87-018B-446E-A2B1-4E0F7A70DB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1151,7 +1151,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{2C6D41AA-818B-46A9-B806-E7B725E688A6}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{B915066F-8AE0-411C-9A31-10D7D0926FDA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,10 +1181,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C1E736-31F6-48BE-9F4C-B19C0B5B90A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5B44F9-79AC-4C89-A40D-E3B3B986792A}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,7 +1222,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE22DA37-101A-4F99-950B-17E8EFDF96DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799B2AC2-061A-49BA-BBBA-1659E9EA37CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1285,7 +1285,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D07BC2-A562-4D23-A8E4-B5042CC5522A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E0A03D-967B-4040-8EBF-BA90A13FFE35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1304,7 +1304,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FF8335-999B-64BB-773A-4C821EFCAD64}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2C9B0A-01A1-B95C-4667-E94CBA4CA6B2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1353,7 +1353,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A85F81B-48A5-77BE-EBAD-E678F585F629}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D4C1E4-9F5E-2C81-528A-571117CB3070}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1372,7 +1372,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43EDAB2B-F46D-D9A2-ACD9-C6EF553A3E47}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAC4A47-388B-4CD5-E95F-0DA6293198BB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5311FB-8BE0-8170-C8B6-88C9593ABA14}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97AB65AB-51CF-7F99-3E23-1F8C86E79A4A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC3337B-C770-CC7D-3256-D3B585B1D1A8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2CD18E-7E64-4BBC-04F3-DB189F6F583E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1477,7 +1477,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B368AAEF-1DC1-4A5A-B4F8-2D9099D5E6C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9685E8A9-5ACE-449A-A1D8-491D504966CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1515,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2028F1D9-B054-4CB5-9A11-6078FD3FFF58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B601E3-AD5F-4D7D-A92D-C77427ECE555}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1558,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E503232-B113-47F8-BB28-EC412BC3AE2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C83935B-F8C2-4DF7-A2B8-34434D028342}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA0E908-097A-4E81-A9A1-CD1AD1D21F7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54848C88-7AEF-409D-A100-04D8A5D78EB9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/HERVAL.xlsx
+++ b/HERVAL.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E07A87-018B-446E-A2B1-4E0F7A70DB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24EF1DFA-5F5A-4274-B782-A09A1DEAC1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="6" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="5" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="4" r:id="rId5"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="5" r:id="rId6"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="282">
   <si>
     <t>Número</t>
   </si>
@@ -871,15 +870,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>HERVAL</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1128,30 +1118,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{B915066F-8AE0-411C-9A31-10D7D0926FDA}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{86CA5C13-D0D2-4507-AC06-8085A80F1358}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,10 +1153,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D5B44F9-79AC-4C89-A40D-E3B3B986792A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14006F8-FDA1-456A-930A-4E3CFCE5D69A}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,7 +1194,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{799B2AC2-061A-49BA-BBBA-1659E9EA37CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65BDFB8-3C5F-43B0-A847-4F821E10BA0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1285,7 +1257,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E0A03D-967B-4040-8EBF-BA90A13FFE35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEED1CBC-CD0C-4B21-8209-39115D73C9E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1304,7 +1276,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2C9B0A-01A1-B95C-4667-E94CBA4CA6B2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E7E93A-9135-A9E0-79C3-C9F2999C1A59}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1353,7 +1325,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D4C1E4-9F5E-2C81-528A-571117CB3070}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D20727-B377-9C8D-3714-F56E0CC3C5B8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1372,7 +1344,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAC4A47-388B-4CD5-E95F-0DA6293198BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717F3E75-0733-7909-97D9-F8EC91C436ED}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1403,7 +1375,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97AB65AB-51CF-7F99-3E23-1F8C86E79A4A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F0C255-956B-4394-8A19-C9D24D0339B0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1434,7 +1406,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2CD18E-7E64-4BBC-04F3-DB189F6F583E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7760CF15-E3EC-FEAD-7C2F-033E3C57E8F1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1477,7 +1449,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9685E8A9-5ACE-449A-A1D8-491D504966CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4E66C2-B32B-447A-90B9-ABECAD9E179F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1487,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B601E3-AD5F-4D7D-A92D-C77427ECE555}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE77925B-E718-43CC-A7A9-BE7487B9822F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1530,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C83935B-F8C2-4DF7-A2B8-34434D028342}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127C0913-1F56-4829-91A6-35F93A4065BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54848C88-7AEF-409D-A100-04D8A5D78EB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3C1550-9E5D-4590-ADEF-43AD16A89D3D}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1883,98 +1855,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="33"/>
-    <col min="6" max="6" width="2" style="33" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="33" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="33"/>
+    <col min="1" max="5" width="12.5703125" style="27"/>
+    <col min="6" max="6" width="2" style="27" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="27" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="32"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="32"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="32"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="32"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="32"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="32"/>
+      <c r="F6" s="26"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="32"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="32"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="32"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="32"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="32"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="32"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="32"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="32"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="32"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="32"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="32"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="32"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="32"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="32"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="32"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="32"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="32"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="32"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="32"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="32"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="32"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="32"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="32"/>
+      <c r="F29" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5311,52 +5283,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="E1" s="28">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="31">
-        <v>26</v>
-      </c>
-      <c r="C2" s="29">
-        <v>1.719349292421637E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/HERVAL.xlsx
+++ b/HERVAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24EF1DFA-5F5A-4274-B782-A09A1DEAC1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0E554B5-2341-4B2F-89A0-FC830DE4BBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1123,7 +1123,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{86CA5C13-D0D2-4507-AC06-8085A80F1358}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{CC5E4F09-3257-4DB3-B13D-B17CCC5C010B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1153,10 +1153,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14006F8-FDA1-456A-930A-4E3CFCE5D69A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097F9E0C-631A-4FC8-BD32-08830C63108F}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1194,7 +1194,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65BDFB8-3C5F-43B0-A847-4F821E10BA0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCA907B-B2B5-4CB7-9262-9E124A2A02F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1257,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEED1CBC-CD0C-4B21-8209-39115D73C9E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE1CD8C-C9DF-48CD-B542-88F741341688}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1276,7 +1276,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58E7E93A-9135-A9E0-79C3-C9F2999C1A59}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EBF9C5C-26DA-CAC3-974E-E6747FE57661}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1325,7 +1325,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D20727-B377-9C8D-3714-F56E0CC3C5B8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50DF5481-0FA7-11A4-BB2B-72AC14C4B4D8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1344,7 +1344,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717F3E75-0733-7909-97D9-F8EC91C436ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7800E9F-5BDA-85DB-5E90-700788FE1FDE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1375,7 +1375,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F0C255-956B-4394-8A19-C9D24D0339B0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF10C20-EA47-08D9-6BB7-74BBCD172020}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1406,7 +1406,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7760CF15-E3EC-FEAD-7C2F-033E3C57E8F1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C861A6-4093-F1E6-3138-7EDFE0153898}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1449,7 +1449,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C4E66C2-B32B-447A-90B9-ABECAD9E179F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C20F16-5F11-4887-8D4F-AC091924C913}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE77925B-E718-43CC-A7A9-BE7487B9822F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A634CC4E-EAF8-4D4B-A6A7-CCF52BF288ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,50 +1512,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{127C0913-1F56-4829-91A6-35F93A4065BF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1843,7 +1799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3C1550-9E5D-4590-ADEF-43AD16A89D3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D02DE9-0143-4ABB-BCFA-26C3AD63537D}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/HERVAL.xlsx
+++ b/HERVAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0E554B5-2341-4B2F-89A0-FC830DE4BBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{339AE583-FE25-4895-B6F1-8C46D16A29D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -882,14 +882,6 @@
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -917,6 +909,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1002,21 +1002,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1050,6 +1035,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1057,73 +1057,73 @@
   </cellStyleXfs>
   <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{CC5E4F09-3257-4DB3-B13D-B17CCC5C010B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E75E7813-0BED-4EC9-A145-8545C27837F6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1153,7 +1153,7 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097F9E0C-631A-4FC8-BD32-08830C63108F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6748AE02-E2C2-4E64-89EE-4CCB977947A6}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
               <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
@@ -1194,7 +1194,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCA907B-B2B5-4CB7-9262-9E124A2A02F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C6C110-4209-415A-9AA4-6108834476E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1257,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE1CD8C-C9DF-48CD-B542-88F741341688}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5697EE6F-F013-48D2-849A-219BF902EA40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1276,7 +1276,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EBF9C5C-26DA-CAC3-974E-E6747FE57661}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC0C3B4-DEEC-25FA-6ED0-399F1E7D9EC5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1325,7 +1325,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50DF5481-0FA7-11A4-BB2B-72AC14C4B4D8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5460C3DA-B0FA-068B-8922-228BB84F6204}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1344,7 +1344,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7800E9F-5BDA-85DB-5E90-700788FE1FDE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6B43EE-6B65-079E-A433-1ECC2FC51BC1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1375,7 +1375,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FF10C20-EA47-08D9-6BB7-74BBCD172020}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717D5139-9C46-CB1F-9A8A-1B95EDE6C4E5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1406,7 +1406,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C861A6-4093-F1E6-3138-7EDFE0153898}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11672686-9032-34EB-D818-ACED6A669794}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1449,7 +1449,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C20F16-5F11-4887-8D4F-AC091924C913}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4474DD9-9CAC-4F18-BC0E-7D2F0D3CD8F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1487,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A634CC4E-EAF8-4D4B-A6A7-CCF52BF288ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{867DFFCC-B7D7-4415-A3F5-408C5914EF84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D02DE9-0143-4ABB-BCFA-26C3AD63537D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B5743B-ED70-4D32-B83A-0633B1E150AD}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
